--- a/ChecklistSQA.xlsx
+++ b/ChecklistSQA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ING SOFTWARE 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MOTOOLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="171">
   <si>
     <t>SI</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>Comprobar decha y hora de actualización</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -726,6 +729,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,15 +757,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1115,24 +1118,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1468,24 +1471,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1498,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1639,24 +1642,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1866,7 +1869,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,24 +1883,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1910,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1917,7 +1920,9 @@
         <v>49</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -1929,7 +1934,9 @@
         <v>50</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1941,7 +1948,9 @@
         <v>51</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -1952,7 +1961,9 @@
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1964,7 +1975,9 @@
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1976,7 +1989,9 @@
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1988,7 +2003,9 @@
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2000,7 +2017,9 @@
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2012,7 +2031,9 @@
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2025,7 +2046,9 @@
         <v>58</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -2308,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,24 +2346,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2373,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2359,7 +2382,9 @@
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2371,7 +2396,9 @@
       <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2383,7 +2410,9 @@
       <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2395,7 +2424,9 @@
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2407,7 +2438,9 @@
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2419,7 +2452,9 @@
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2432,7 +2467,9 @@
         <v>87</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -2444,7 +2481,9 @@
         <v>88</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -2502,24 +2541,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2568,7 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2729,24 +2768,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2795,7 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3064,24 +3103,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3130,7 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3336,29 +3375,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>201610001</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3412,33 +3451,33 @@
       <c r="A7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>201610002</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3492,31 +3531,31 @@
       <c r="A16" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>201610003</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3570,31 +3609,31 @@
       <c r="A25" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>201610004</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3646,31 +3685,31 @@
       <c r="A34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="11">
         <v>201610005</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3714,17 +3753,17 @@
       <c r="A43" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
